--- a/testData/Notification/WF1_EveryTime_Rec_Save_Test.xlsx
+++ b/testData/Notification/WF1_EveryTime_Rec_Save_Test.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>WorkflowName</t>
   </si>
@@ -45,22 +45,77 @@
     <t>Number</t>
   </si>
   <si>
-    <t>sudhakar@rsoft.in</t>
-  </si>
-  <si>
-    <t>Very good</t>
-  </si>
-  <si>
     <t>NumberField</t>
   </si>
   <si>
-    <t>Madhan Mohan</t>
+    <t>Sudhakar VE</t>
+  </si>
+  <si>
+    <t>WF1CRMEditField</t>
+  </si>
+  <si>
+    <t>ExecutionCondition</t>
+  </si>
+  <si>
+    <t>Every time the record is save</t>
+  </si>
+  <si>
+    <t>Send notification</t>
+  </si>
+  <si>
+    <t>ActionType</t>
+  </si>
+  <si>
+    <t>ActionTitle</t>
+  </si>
+  <si>
+    <t>NewTriggerNotification</t>
+  </si>
+  <si>
+    <t>RecordId</t>
+  </si>
+  <si>
+    <t>Bad</t>
+  </si>
+  <si>
+    <t>checker@afasdf.com</t>
+  </si>
+  <si>
+    <t>90244</t>
+  </si>
+  <si>
+    <t>90251</t>
+  </si>
+  <si>
+    <t>90348</t>
+  </si>
+  <si>
+    <t>90354</t>
+  </si>
+  <si>
+    <t>90358</t>
+  </si>
+  <si>
+    <t>90362</t>
+  </si>
+  <si>
+    <t>90366</t>
+  </si>
+  <si>
+    <t>90370</t>
+  </si>
+  <si>
+    <t>90374</t>
+  </si>
+  <si>
+    <t>90388</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -384,72 +439,101 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" bestFit="true" customWidth="true" width="18.453125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.36328125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.0"/>
+    <col min="5" max="5" customWidth="true" width="13.0"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="16.453125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.1796875"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.81640625"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="24.81640625"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="14.90625"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="20.08984375"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="23.81640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="L1" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2">
-        <v>1234567890</v>
+      <c r="C2" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D2" s="0">
+        <v>9087654321</v>
       </c>
       <c r="E2" s="2">
-        <v>12431234234</v>
+        <v>44444444444</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
+        <v>19</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>18</v>
       </c>
       <c r="H2" s="2">
-        <v>4123412341</v>
+        <v>4444444444</v>
+      </c>
+      <c r="I2" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="K2" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="L2" t="s" s="0">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/testData/Notification/WF1_EveryTime_Rec_Save_Test.xlsx
+++ b/testData/Notification/WF1_EveryTime_Rec_Save_Test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>WorkflowName</t>
   </si>
@@ -81,34 +81,19 @@
     <t>checker@afasdf.com</t>
   </si>
   <si>
-    <t>90244</t>
-  </si>
-  <si>
-    <t>90251</t>
-  </si>
-  <si>
-    <t>90348</t>
-  </si>
-  <si>
-    <t>90354</t>
-  </si>
-  <si>
-    <t>90358</t>
-  </si>
-  <si>
-    <t>90362</t>
-  </si>
-  <si>
-    <t>90366</t>
-  </si>
-  <si>
-    <t>90370</t>
-  </si>
-  <si>
-    <t>90374</t>
-  </si>
-  <si>
-    <t>90388</t>
+    <t>90412</t>
+  </si>
+  <si>
+    <t>WorkflowPos</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>90424</t>
   </si>
 </sst>
 </file>
@@ -439,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -457,10 +442,11 @@
     <col min="9" max="9" bestFit="true" customWidth="true" width="24.81640625"/>
     <col min="10" max="10" bestFit="true" customWidth="true" width="14.90625"/>
     <col min="11" max="11" bestFit="true" customWidth="true" width="20.08984375"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="23.81640625"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="8.26953125"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="11.90625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s" s="0">
         <v>2</v>
       </c>
@@ -497,8 +483,11 @@
       <c r="L1" t="s" s="0">
         <v>17</v>
       </c>
+      <c r="M1" t="s" s="0">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s" s="0">
         <v>1</v>
       </c>
@@ -533,7 +522,10 @@
         <v>16</v>
       </c>
       <c r="L2" t="s" s="0">
-        <v>29</v>
+        <v>24</v>
+      </c>
+      <c r="M2" t="s" s="0">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
